--- a/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES DICIEMBRE 2019.xlsx
+++ b/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES DICIEMBRE 2019.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manny\git\rp_c\DOCUMENTOS_GENERADOS\ESTRUCTURAS\BIESS\G02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA41C4D8-96E6-4F08-8540-4B5291D0EF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F941D44B-6C88-4758-9F2F-19BBDF06B007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G02" sheetId="1" r:id="rId1"/>
     <sheet name="DATOS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1058">
   <si>
     <t>Número de Registro</t>
   </si>
@@ -3520,18 +3520,9 @@
     <t>446071</t>
   </si>
   <si>
-    <t>3/09/2019</t>
-  </si>
-  <si>
-    <t>9/09/2019</t>
-  </si>
-  <si>
     <t>02/03/2020</t>
   </si>
   <si>
-    <t>9/03/2020</t>
-  </si>
-  <si>
     <t>181</t>
   </si>
   <si>
@@ -3755,6 +3746,9 @@
   </si>
   <si>
     <t>9.25</t>
+  </si>
+  <si>
+    <t>08/02/2020</t>
   </si>
 </sst>
 </file>
@@ -4632,7 +4626,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,7 +4787,7 @@
         <v>968</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>969</v>
@@ -4861,7 +4855,7 @@
         <v>973</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>974</v>
@@ -4929,7 +4923,7 @@
         <v>977</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>978</v>
@@ -4988,19 +4982,19 @@
         <v>955</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>991</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>981</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>981</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>983</v>
-      </c>
       <c r="J10" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L10" s="31">
         <v>1818061.2</v>
@@ -5015,13 +5009,13 @@
         <v>1818061.2</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S10" s="19" t="s">
         <v>961</v>
@@ -5056,16 +5050,16 @@
         <v>955</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>982</v>
+        <v>1008</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>978</v>
@@ -5115,7 +5109,7 @@
         <v>114</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>904</v>
@@ -5124,19 +5118,19 @@
         <v>955</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I12" s="34" t="s">
         <v>977</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L12" s="31">
         <v>1546841.8</v>
@@ -5151,13 +5145,13 @@
         <v>1546841.8</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S12" s="19" t="s">
         <v>961</v>
@@ -5183,7 +5177,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>904</v>
@@ -5192,19 +5186,19 @@
         <v>955</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I13" s="34" t="s">
         <v>977</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L13" s="31">
         <v>331962.42</v>
@@ -5219,13 +5213,13 @@
         <v>331962.42</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R13" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S13" s="19" t="s">
         <v>961</v>
@@ -5251,7 +5245,7 @@
         <v>114</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>904</v>
@@ -5260,19 +5254,19 @@
         <v>955</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L14" s="31">
         <v>137197.66</v>
@@ -5287,13 +5281,13 @@
         <v>137197.66</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q14" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R14" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S14" s="19" t="s">
         <v>961</v>
@@ -5319,7 +5313,7 @@
         <v>99</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>904</v>
@@ -5328,19 +5322,19 @@
         <v>955</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L15" s="31">
         <v>1494200.38</v>
@@ -5355,13 +5349,13 @@
         <v>1494200.38</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R15" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S15" s="19" t="s">
         <v>961</v>
@@ -5387,7 +5381,7 @@
         <v>99</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>904</v>
@@ -5396,16 +5390,16 @@
         <v>955</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>978</v>
@@ -5452,10 +5446,10 @@
         <v>23</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>904</v>
@@ -5473,7 +5467,7 @@
         <v>977</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>978</v>
@@ -5520,10 +5514,10 @@
         <v>23</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>904</v>
@@ -5532,16 +5526,16 @@
         <v>955</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>978</v>
@@ -5591,7 +5585,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>904</v>
@@ -5600,19 +5594,19 @@
         <v>955</v>
       </c>
       <c r="G19" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>1003</v>
       </c>
-      <c r="H19" s="34" t="s">
-        <v>1003</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>1006</v>
-      </c>
       <c r="J19" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L19" s="31">
         <v>1173824.71</v>
@@ -5627,13 +5621,13 @@
         <v>1173824.71</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S19" s="19" t="s">
         <v>961</v>
@@ -5659,7 +5653,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>904</v>
@@ -5668,19 +5662,19 @@
         <v>955</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J20" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L20" s="31">
         <v>1783421.09</v>
@@ -5695,13 +5689,13 @@
         <v>1783421.09</v>
       </c>
       <c r="P20" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R20" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S20" s="19" t="s">
         <v>961</v>
@@ -5724,10 +5718,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>904</v>
@@ -5736,16 +5730,16 @@
         <v>955</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>978</v>
@@ -5792,10 +5786,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>904</v>
@@ -5804,16 +5798,16 @@
         <v>955</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>978</v>
@@ -5860,10 +5854,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>1007</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>1010</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>904</v>
@@ -5872,16 +5866,16 @@
         <v>955</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>977</v>
+        <v>1057</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>978</v>
@@ -5931,7 +5925,7 @@
         <v>345</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>904</v>
@@ -5940,16 +5934,16 @@
         <v>955</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>978</v>
@@ -5999,7 +5993,7 @@
         <v>345</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>904</v>
@@ -6008,19 +6002,19 @@
         <v>955</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H25" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I25" s="34" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L25" s="31">
         <v>590634</v>
@@ -6035,13 +6029,13 @@
         <v>590634</v>
       </c>
       <c r="P25" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S25" s="19" t="s">
         <v>961</v>
@@ -6067,7 +6061,7 @@
         <v>345</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>904</v>
@@ -6076,19 +6070,19 @@
         <v>955</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K26" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L26" s="31">
         <v>1441652.06</v>
@@ -6103,13 +6097,13 @@
         <v>1441652.06</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S26" s="19" t="s">
         <v>961</v>
@@ -6135,7 +6129,7 @@
         <v>345</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>904</v>
@@ -6144,19 +6138,19 @@
         <v>955</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="I27" s="34" t="s">
         <v>977</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L27" s="31">
         <v>1110553.8899999999</v>
@@ -6171,13 +6165,13 @@
         <v>1110553.8899999999</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S27" s="19" t="s">
         <v>961</v>
@@ -6203,7 +6197,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>904</v>
@@ -6212,19 +6206,19 @@
         <v>955</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="H28" s="34" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="L28" s="31">
         <v>517848.61</v>
@@ -6239,13 +6233,13 @@
         <v>517848.61</v>
       </c>
       <c r="P28" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="S28" s="19" t="s">
         <v>961</v>
@@ -6268,10 +6262,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>943</v>
@@ -6280,19 +6274,19 @@
         <v>955</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I29" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K29" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="L29" s="31">
         <v>194770</v>
@@ -6307,13 +6301,13 @@
         <v>191279.16</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="S29" s="19" t="s">
         <v>961</v>
@@ -6336,10 +6330,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>943</v>
@@ -6348,19 +6342,19 @@
         <v>955</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I30" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K30" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="L30" s="31">
         <v>10100</v>
@@ -6375,13 +6369,13 @@
         <v>9918.98</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="S30" s="19" t="s">
         <v>961</v>
@@ -6404,10 +6398,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="25" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>1020</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>1023</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>943</v>
@@ -6416,19 +6410,19 @@
         <v>955</v>
       </c>
       <c r="G31" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I31" s="34" t="s">
         <v>1027</v>
       </c>
-      <c r="H31" s="34" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I31" s="34" t="s">
+      <c r="J31" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K31" s="13" t="s">
         <v>1030</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>1033</v>
       </c>
       <c r="L31" s="31">
         <v>500000</v>
@@ -6443,13 +6437,13 @@
         <v>487526.1</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="S31" s="19" t="s">
         <v>961</v>
@@ -6472,10 +6466,10 @@
         <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>943</v>
@@ -6484,19 +6478,19 @@
         <v>955</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="I32" s="34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="K32" s="13" t="s">
         <v>1029</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>1032</v>
       </c>
       <c r="L32" s="31">
         <v>300000</v>
@@ -6511,13 +6505,13 @@
         <v>294623.13</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="S32" s="19" t="s">
         <v>961</v>
@@ -6540,10 +6534,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>943</v>
@@ -6552,16 +6546,16 @@
         <v>955</v>
       </c>
       <c r="G33" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H33" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I33" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I33" s="34" t="s">
-        <v>1031</v>
-      </c>
       <c r="J33" s="13" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>969</v>
@@ -6608,10 +6602,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>943</v>
@@ -6620,16 +6614,16 @@
         <v>955</v>
       </c>
       <c r="G34" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H34" s="34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I34" s="34" t="s">
         <v>1028</v>
       </c>
-      <c r="H34" s="34" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>1031</v>
-      </c>
       <c r="J34" s="13" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>969</v>
@@ -6679,7 +6673,7 @@
         <v>391</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>943</v>
@@ -6688,19 +6682,19 @@
         <v>955</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H35" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="L35" s="31">
         <v>500000</v>
@@ -6715,13 +6709,13 @@
         <v>486766.05</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="S35" s="19" t="s">
         <v>961</v>
@@ -6747,7 +6741,7 @@
         <v>731</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>943</v>
@@ -6756,19 +6750,19 @@
         <v>955</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="L36" s="31">
         <v>870044</v>
@@ -6783,13 +6777,13 @@
         <v>850205.86</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="S36" s="19" t="s">
         <v>961</v>
@@ -6815,7 +6809,7 @@
         <v>812</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>943</v>
@@ -6824,19 +6818,19 @@
         <v>955</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H37" s="34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="L37" s="31">
         <v>1620000</v>
@@ -6851,13 +6845,13 @@
         <v>1500308.71</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="S37" s="19" t="s">
         <v>961</v>
@@ -6883,7 +6877,7 @@
         <v>611</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>943</v>
@@ -6892,19 +6886,19 @@
         <v>955</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="J38" s="13" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="L38" s="31">
         <v>1758956</v>
@@ -6919,13 +6913,13 @@
         <v>1631516.44</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="S38" s="19" t="s">
         <v>961</v>

--- a/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES DICIEMBRE 2019.xlsx
+++ b/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/G02-INGRESO DE INVERSIONES DICIEMBRE 2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manny\git\rp_c\DOCUMENTOS_GENERADOS\ESTRUCTURAS\BIESS\G02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/git/rp_c/DOCUMENTOS_GENERADOS/ESTRUCTURAS/BIESS/G02/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F941D44B-6C88-4758-9F2F-19BBDF06B007}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE9357F-BA35-3F44-B19A-606196757FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="G02" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -51,7 +51,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -92,7 +92,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -101,7 +101,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="1057">
   <si>
     <t>Número de Registro</t>
   </si>
@@ -3557,9 +3557,6 @@
   </si>
   <si>
     <t>16/03/2020</t>
-  </si>
-  <si>
-    <t>190115798001</t>
   </si>
   <si>
     <t>055091292999</t>
@@ -3759,7 +3756,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3804,6 +3801,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3937,7 +3947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4059,6 +4069,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4625,33 +4638,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="11" customWidth="1"/>
     <col min="2" max="2" width="19" style="11" customWidth="1"/>
     <col min="3" max="3" width="22" style="11" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="11" customWidth="1"/>
     <col min="10" max="11" width="13" style="11" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" style="11" customWidth="1"/>
     <col min="13" max="13" width="15" style="11" customWidth="1"/>
     <col min="14" max="17" width="13" style="11" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="11" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="11" customWidth="1"/>
+    <col min="19" max="19" width="17.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.33203125" style="11" customWidth="1"/>
     <col min="21" max="22" width="13" style="11" customWidth="1"/>
-    <col min="23" max="16384" width="10.85546875" style="11"/>
+    <col min="23" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -4659,7 +4672,7 @@
       <c r="C1" s="38"/>
       <c r="D1" s="39"/>
     </row>
-    <row r="2" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4673,7 +4686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" t="s">
         <v>29</v>
       </c>
@@ -4688,9 +4701,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:22" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>0</v>
       </c>
@@ -4758,7 +4771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -4787,7 +4800,7 @@
         <v>968</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>969</v>
@@ -4826,7 +4839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>2</v>
       </c>
@@ -4855,7 +4868,7 @@
         <v>973</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>974</v>
@@ -4894,7 +4907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -4923,7 +4936,7 @@
         <v>977</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>978</v>
@@ -4962,7 +4975,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -4991,7 +5004,7 @@
         <v>981</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K10" s="13" t="s">
         <v>982</v>
@@ -5030,7 +5043,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -5050,16 +5063,16 @@
         <v>955</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>978</v>
@@ -5098,7 +5111,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>6</v>
       </c>
@@ -5127,7 +5140,7 @@
         <v>977</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>982</v>
@@ -5166,7 +5179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>7</v>
       </c>
@@ -5195,7 +5208,7 @@
         <v>977</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>982</v>
@@ -5234,7 +5247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>8</v>
       </c>
@@ -5263,7 +5276,7 @@
         <v>988</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>982</v>
@@ -5302,7 +5315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>9</v>
       </c>
@@ -5331,7 +5344,7 @@
         <v>981</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>982</v>
@@ -5370,7 +5383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -5399,7 +5412,7 @@
         <v>993</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>978</v>
@@ -5438,18 +5451,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>11</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>994</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>995</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>904</v>
@@ -5467,7 +5480,7 @@
         <v>977</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>978</v>
@@ -5506,18 +5519,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>12</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>994</v>
+      <c r="C18" s="53" t="s">
+        <v>270</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>904</v>
@@ -5532,10 +5545,10 @@
         <v>986</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>978</v>
@@ -5574,7 +5587,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>13</v>
       </c>
@@ -5585,7 +5598,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E19" s="14" t="s">
         <v>904</v>
@@ -5594,16 +5607,16 @@
         <v>955</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H19" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>982</v>
@@ -5642,7 +5655,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>14</v>
       </c>
@@ -5653,7 +5666,7 @@
         <v>126</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>904</v>
@@ -5662,16 +5675,16 @@
         <v>955</v>
       </c>
       <c r="G20" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="34" t="s">
         <v>1001</v>
       </c>
-      <c r="H20" s="34" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>1002</v>
-      </c>
       <c r="J20" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>982</v>
@@ -5710,7 +5723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>15</v>
       </c>
@@ -5718,10 +5731,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="25" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>1004</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>1005</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>904</v>
@@ -5730,16 +5743,16 @@
         <v>955</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>978</v>
@@ -5778,7 +5791,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>16</v>
       </c>
@@ -5786,10 +5799,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>904</v>
@@ -5798,16 +5811,16 @@
         <v>955</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H22" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K22" s="13" t="s">
         <v>978</v>
@@ -5846,7 +5859,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>17</v>
       </c>
@@ -5854,10 +5867,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>904</v>
@@ -5866,16 +5879,16 @@
         <v>955</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H23" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K23" s="13" t="s">
         <v>978</v>
@@ -5914,7 +5927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>18</v>
       </c>
@@ -5925,7 +5938,7 @@
         <v>345</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>904</v>
@@ -5934,16 +5947,16 @@
         <v>955</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H24" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K24" s="13" t="s">
         <v>978</v>
@@ -5982,7 +5995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>19</v>
       </c>
@@ -5993,7 +6006,7 @@
         <v>345</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>904</v>
@@ -6011,7 +6024,7 @@
         <v>988</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K25" s="13" t="s">
         <v>982</v>
@@ -6050,7 +6063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>20</v>
       </c>
@@ -6061,7 +6074,7 @@
         <v>345</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>904</v>
@@ -6079,7 +6092,7 @@
         <v>988</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>982</v>
@@ -6118,7 +6131,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>21</v>
       </c>
@@ -6129,7 +6142,7 @@
         <v>345</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>904</v>
@@ -6147,7 +6160,7 @@
         <v>977</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K27" s="13" t="s">
         <v>982</v>
@@ -6186,7 +6199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>22</v>
       </c>
@@ -6197,7 +6210,7 @@
         <v>77</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>904</v>
@@ -6206,16 +6219,16 @@
         <v>955</v>
       </c>
       <c r="G28" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I28" s="34" t="s">
         <v>1015</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>1015</v>
-      </c>
-      <c r="I28" s="34" t="s">
-        <v>1016</v>
-      </c>
       <c r="J28" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>982</v>
@@ -6254,7 +6267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>23</v>
       </c>
@@ -6262,10 +6275,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>1017</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>1018</v>
       </c>
       <c r="E29" s="14" t="s">
         <v>943</v>
@@ -6274,19 +6287,19 @@
         <v>955</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I29" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L29" s="31">
         <v>194770</v>
@@ -6301,13 +6314,13 @@
         <v>191279.16</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S29" s="19" t="s">
         <v>961</v>
@@ -6322,7 +6335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>24</v>
       </c>
@@ -6330,10 +6343,10 @@
         <v>23</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>943</v>
@@ -6342,19 +6355,19 @@
         <v>955</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H30" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L30" s="31">
         <v>10100</v>
@@ -6369,13 +6382,13 @@
         <v>9918.98</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S30" s="19" t="s">
         <v>961</v>
@@ -6390,7 +6403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>25</v>
       </c>
@@ -6398,10 +6411,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>943</v>
@@ -6410,19 +6423,19 @@
         <v>955</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H31" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L31" s="31">
         <v>500000</v>
@@ -6437,13 +6450,13 @@
         <v>487526.1</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="S31" s="19" t="s">
         <v>961</v>
@@ -6458,7 +6471,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>26</v>
       </c>
@@ -6466,10 +6479,10 @@
         <v>23</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E32" s="14" t="s">
         <v>943</v>
@@ -6478,19 +6491,19 @@
         <v>955</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="L32" s="31">
         <v>300000</v>
@@ -6505,13 +6518,13 @@
         <v>294623.13</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S32" s="19" t="s">
         <v>961</v>
@@ -6526,7 +6539,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>27</v>
       </c>
@@ -6534,10 +6547,10 @@
         <v>23</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>943</v>
@@ -6546,16 +6559,16 @@
         <v>955</v>
       </c>
       <c r="G33" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H33" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J33" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K33" s="13" t="s">
         <v>969</v>
@@ -6594,7 +6607,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>28</v>
       </c>
@@ -6602,10 +6615,10 @@
         <v>23</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>943</v>
@@ -6614,16 +6627,16 @@
         <v>955</v>
       </c>
       <c r="G34" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H34" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>969</v>
@@ -6662,7 +6675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>29</v>
       </c>
@@ -6673,7 +6686,7 @@
         <v>391</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>943</v>
@@ -6682,19 +6695,19 @@
         <v>955</v>
       </c>
       <c r="G35" s="34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H35" s="34" t="s">
+        <v>1031</v>
+      </c>
+      <c r="I35" s="34" t="s">
         <v>1032</v>
       </c>
-      <c r="H35" s="34" t="s">
-        <v>1032</v>
-      </c>
-      <c r="I35" s="34" t="s">
+      <c r="J35" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>1033</v>
-      </c>
-      <c r="J35" s="13" t="s">
-        <v>1053</v>
-      </c>
-      <c r="K35" s="13" t="s">
-        <v>1034</v>
       </c>
       <c r="L35" s="31">
         <v>500000</v>
@@ -6709,13 +6722,13 @@
         <v>486766.05</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="Q35" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="R35" s="13" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="S35" s="19" t="s">
         <v>961</v>
@@ -6730,7 +6743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>30</v>
       </c>
@@ -6741,7 +6754,7 @@
         <v>731</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>943</v>
@@ -6750,19 +6763,19 @@
         <v>955</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H36" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="I36" s="34" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K36" s="13" t="s">
         <v>1036</v>
-      </c>
-      <c r="J36" s="13" t="s">
-        <v>1054</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>1037</v>
       </c>
       <c r="L36" s="31">
         <v>870044</v>
@@ -6777,13 +6790,13 @@
         <v>850205.86</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S36" s="19" t="s">
         <v>961</v>
@@ -6798,7 +6811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>31</v>
       </c>
@@ -6809,7 +6822,7 @@
         <v>812</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E37" s="14" t="s">
         <v>943</v>
@@ -6818,19 +6831,19 @@
         <v>955</v>
       </c>
       <c r="G37" s="34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I37" s="34" t="s">
         <v>1039</v>
       </c>
-      <c r="H37" s="34" t="s">
-        <v>1039</v>
-      </c>
-      <c r="I37" s="34" t="s">
+      <c r="J37" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="K37" s="13" t="s">
         <v>1040</v>
-      </c>
-      <c r="J37" s="13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>1041</v>
       </c>
       <c r="L37" s="31">
         <v>1620000</v>
@@ -6845,13 +6858,13 @@
         <v>1500308.71</v>
       </c>
       <c r="P37" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="Q37" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="R37" s="13" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="S37" s="19" t="s">
         <v>961</v>
@@ -6866,7 +6879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>32</v>
       </c>
@@ -6877,7 +6890,7 @@
         <v>611</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="E38" s="14" t="s">
         <v>943</v>
@@ -6886,19 +6899,19 @@
         <v>955</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H38" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="I38" s="34" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K38" s="13" t="s">
         <v>1043</v>
-      </c>
-      <c r="J38" s="13" t="s">
-        <v>1056</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>1044</v>
       </c>
       <c r="L38" s="31">
         <v>1758956</v>
@@ -6913,13 +6926,13 @@
         <v>1631516.44</v>
       </c>
       <c r="P38" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="R38" s="13" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="S38" s="19" t="s">
         <v>961</v>
@@ -7027,26 +7040,26 @@
   <dimension ref="A1:O462"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
-    <col min="12" max="12" width="44.7109375" customWidth="1"/>
-    <col min="13" max="13" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="44.6640625" customWidth="1"/>
+    <col min="13" max="13" width="53.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" customWidth="1"/>
     <col min="15" max="15" width="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>862</v>
       </c>
@@ -7079,7 +7092,7 @@
       </c>
       <c r="O1" s="40"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>863</v>
       </c>
@@ -7126,7 +7139,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>865</v>
       </c>
@@ -7173,7 +7186,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -7200,7 +7213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L5" s="10" t="s">
         <v>895</v>
       </c>
@@ -7214,7 +7227,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L6" s="10" t="s">
         <v>896</v>
       </c>
@@ -7228,7 +7241,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L7" s="10" t="s">
         <v>898</v>
       </c>
@@ -7242,7 +7255,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L8" s="10" t="s">
         <v>900</v>
       </c>
@@ -7256,7 +7269,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L9" s="10" t="s">
         <v>902</v>
       </c>
@@ -7270,7 +7283,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L10" s="10" t="s">
         <v>904</v>
       </c>
@@ -7284,7 +7297,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L11" s="10" t="s">
         <v>906</v>
       </c>
@@ -7298,7 +7311,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L12" s="10" t="s">
         <v>908</v>
       </c>
@@ -7312,7 +7325,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L13" s="10" t="s">
         <v>910</v>
       </c>
@@ -7326,7 +7339,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L14" s="10" t="s">
         <v>912</v>
       </c>
@@ -7340,7 +7353,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L15" s="10" t="s">
         <v>914</v>
       </c>
@@ -7354,7 +7367,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L16" s="10" t="s">
         <v>916</v>
       </c>
@@ -7368,7 +7381,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="17" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L17" s="10" t="s">
         <v>918</v>
       </c>
@@ -7382,7 +7395,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="18" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L18" s="10" t="s">
         <v>920</v>
       </c>
@@ -7396,7 +7409,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="19" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L19" s="10" t="s">
         <v>922</v>
       </c>
@@ -7410,7 +7423,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="20" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L20" s="10" t="s">
         <v>923</v>
       </c>
@@ -7424,7 +7437,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="21" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L21" s="10" t="s">
         <v>925</v>
       </c>
@@ -7438,7 +7451,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L22" s="10" t="s">
         <v>927</v>
       </c>
@@ -7452,7 +7465,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="23" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L23" s="10" t="s">
         <v>929</v>
       </c>
@@ -7466,7 +7479,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="24" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L24" s="10" t="s">
         <v>931</v>
       </c>
@@ -7480,7 +7493,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L25" s="10" t="s">
         <v>932</v>
       </c>
@@ -7494,7 +7507,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L26" s="10" t="s">
         <v>934</v>
       </c>
@@ -7508,7 +7521,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="27" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L27" s="10" t="s">
         <v>936</v>
       </c>
@@ -7522,7 +7535,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L28" s="10" t="s">
         <v>938</v>
       </c>
@@ -7536,7 +7549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L29" s="10" t="s">
         <v>940</v>
       </c>
@@ -7550,7 +7563,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L30" s="10" t="s">
         <v>941</v>
       </c>
@@ -7564,7 +7577,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L31" s="10" t="s">
         <v>943</v>
       </c>
@@ -7578,7 +7591,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L32" s="10" t="s">
         <v>944</v>
       </c>
@@ -7592,7 +7605,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L33" s="10" t="s">
         <v>946</v>
       </c>
@@ -7606,7 +7619,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L34" s="10" t="s">
         <v>948</v>
       </c>
@@ -7620,7 +7633,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L35" s="10" t="s">
         <v>950</v>
       </c>
@@ -7634,7 +7647,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L36" s="10" t="s">
         <v>952</v>
       </c>
@@ -7648,7 +7661,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L37" s="28"/>
       <c r="M37" s="29"/>
       <c r="N37" s="26" t="s">
@@ -7658,7 +7671,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L38" s="28"/>
       <c r="M38" s="29"/>
       <c r="N38" s="26" t="s">
@@ -7668,7 +7681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L39" s="28"/>
       <c r="M39" s="29"/>
       <c r="N39" s="26" t="s">
@@ -7678,7 +7691,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L40" s="28"/>
       <c r="M40" s="29"/>
       <c r="N40" s="26" t="s">
@@ -7688,7 +7701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L41" s="28"/>
       <c r="M41" s="29"/>
       <c r="N41" s="26" t="s">
@@ -7698,7 +7711,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L42" s="28"/>
       <c r="M42" s="29"/>
       <c r="N42" s="26" t="s">
@@ -7708,7 +7721,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L43" s="28"/>
       <c r="M43" s="29"/>
       <c r="N43" s="26" t="s">
@@ -7718,7 +7731,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L44" s="28"/>
       <c r="M44" s="29"/>
       <c r="N44" s="26" t="s">
@@ -7728,7 +7741,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L45" s="28"/>
       <c r="M45" s="29"/>
       <c r="N45" s="26" t="s">
@@ -7738,7 +7751,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="46" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L46" s="28"/>
       <c r="M46" s="29"/>
       <c r="N46" s="26" t="s">
@@ -7748,7 +7761,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="12:15" x14ac:dyDescent="0.2">
       <c r="L47" s="28"/>
       <c r="N47" s="22" t="s">
         <v>69</v>
@@ -7757,7 +7770,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="12:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="12:15" x14ac:dyDescent="0.2">
       <c r="N48" s="22" t="s">
         <v>206</v>
       </c>
@@ -7765,7 +7778,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="49" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N49" s="22" t="s">
         <v>353</v>
       </c>
@@ -7773,7 +7786,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N50" s="22" t="s">
         <v>749</v>
       </c>
@@ -7781,7 +7794,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="51" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N51" s="22" t="s">
         <v>71</v>
       </c>
@@ -7789,7 +7802,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N52" s="22" t="s">
         <v>580</v>
       </c>
@@ -7797,7 +7810,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="53" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N53" s="22" t="s">
         <v>606</v>
       </c>
@@ -7805,7 +7818,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="54" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N54" s="22" t="s">
         <v>210</v>
       </c>
@@ -7813,7 +7826,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N55" s="22" t="s">
         <v>604</v>
       </c>
@@ -7821,7 +7834,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="56" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N56" s="22" t="s">
         <v>596</v>
       </c>
@@ -7829,7 +7842,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="57" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N57" s="22" t="s">
         <v>331</v>
       </c>
@@ -7837,7 +7850,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N58" s="22" t="s">
         <v>166</v>
       </c>
@@ -7845,7 +7858,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="59" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N59" s="22" t="s">
         <v>184</v>
       </c>
@@ -7853,7 +7866,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="60" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N60" s="22" t="s">
         <v>52</v>
       </c>
@@ -7861,7 +7874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N61" s="22" t="s">
         <v>785</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="62" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N62" s="22" t="s">
         <v>676</v>
       </c>
@@ -7877,7 +7890,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N63" s="22" t="s">
         <v>797</v>
       </c>
@@ -7885,7 +7898,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="64" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N64" s="22" t="s">
         <v>700</v>
       </c>
@@ -7893,7 +7906,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N65" s="22" t="s">
         <v>391</v>
       </c>
@@ -7901,7 +7914,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="66" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N66" s="22" t="s">
         <v>118</v>
       </c>
@@ -7909,7 +7922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N67" s="22" t="s">
         <v>110</v>
       </c>
@@ -7917,7 +7930,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N68" s="22" t="s">
         <v>132</v>
       </c>
@@ -7925,7 +7938,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="69" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N69" s="22" t="s">
         <v>812</v>
       </c>
@@ -7933,7 +7946,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="70" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N70" s="22" t="s">
         <v>393</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="71" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N71" s="22" t="s">
         <v>153</v>
       </c>
@@ -7949,7 +7962,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N72" s="22" t="s">
         <v>272</v>
       </c>
@@ -7957,7 +7970,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N73" s="22" t="s">
         <v>399</v>
       </c>
@@ -7965,7 +7978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N74" s="22" t="s">
         <v>550</v>
       </c>
@@ -7973,7 +7986,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="75" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N75" s="22" t="s">
         <v>403</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="76" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N76" s="22" t="s">
         <v>128</v>
       </c>
@@ -7989,7 +8002,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="77" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N77" s="22" t="s">
         <v>562</v>
       </c>
@@ -7997,7 +8010,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="78" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N78" s="22" t="s">
         <v>843</v>
       </c>
@@ -8005,7 +8018,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="79" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N79" s="22" t="s">
         <v>558</v>
       </c>
@@ -8013,7 +8026,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="80" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N80" s="22" t="s">
         <v>683</v>
       </c>
@@ -8021,7 +8034,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="81" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N81" s="22" t="s">
         <v>361</v>
       </c>
@@ -8029,7 +8042,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="82" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N82" s="22" t="s">
         <v>777</v>
       </c>
@@ -8037,7 +8050,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="83" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N83" s="22" t="s">
         <v>619</v>
       </c>
@@ -8045,7 +8058,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="84" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N84" s="22" t="s">
         <v>186</v>
       </c>
@@ -8053,7 +8066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="85" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N85" s="22" t="s">
         <v>767</v>
       </c>
@@ -8061,7 +8074,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="86" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N86" s="22" t="s">
         <v>822</v>
       </c>
@@ -8069,7 +8082,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="87" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N87" s="22" t="s">
         <v>670</v>
       </c>
@@ -8077,7 +8090,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="88" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N88" s="22" t="s">
         <v>99</v>
       </c>
@@ -8085,7 +8098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N89" s="22" t="s">
         <v>735</v>
       </c>
@@ -8093,7 +8106,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="90" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N90" s="22" t="s">
         <v>799</v>
       </c>
@@ -8101,7 +8114,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="91" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N91" s="22" t="s">
         <v>799</v>
       </c>
@@ -8109,7 +8122,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N92" s="22" t="s">
         <v>329</v>
       </c>
@@ -8117,7 +8130,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="93" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N93" s="22" t="s">
         <v>105</v>
       </c>
@@ -8125,7 +8138,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N94" s="22" t="s">
         <v>363</v>
       </c>
@@ -8133,7 +8146,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="95" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N95" s="22" t="s">
         <v>720</v>
       </c>
@@ -8141,7 +8154,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="96" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N96" s="22" t="s">
         <v>534</v>
       </c>
@@ -8149,7 +8162,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="97" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N97" s="22" t="s">
         <v>190</v>
       </c>
@@ -8157,7 +8170,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N98" s="22" t="s">
         <v>411</v>
       </c>
@@ -8165,7 +8178,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N99" s="22" t="s">
         <v>322</v>
       </c>
@@ -8173,7 +8186,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="100" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N100" s="22" t="s">
         <v>584</v>
       </c>
@@ -8181,7 +8194,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="101" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N101" s="22" t="s">
         <v>602</v>
       </c>
@@ -8189,7 +8202,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="102" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N102" s="22" t="s">
         <v>712</v>
       </c>
@@ -8197,7 +8210,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="103" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N103" s="22" t="s">
         <v>635</v>
       </c>
@@ -8205,7 +8218,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="104" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N104" s="22" t="s">
         <v>405</v>
       </c>
@@ -8213,7 +8226,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="105" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N105" s="22" t="s">
         <v>598</v>
       </c>
@@ -8221,7 +8234,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="106" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N106" s="22" t="s">
         <v>172</v>
       </c>
@@ -8229,7 +8242,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N107" s="22" t="s">
         <v>60</v>
       </c>
@@ -8237,7 +8250,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="108" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N108" s="22" t="s">
         <v>357</v>
       </c>
@@ -8245,7 +8258,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N109" s="22" t="s">
         <v>554</v>
       </c>
@@ -8253,7 +8266,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="110" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N110" s="22" t="s">
         <v>89</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="111" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N111" s="22" t="s">
         <v>805</v>
       </c>
@@ -8269,7 +8282,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="112" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N112" s="22" t="s">
         <v>696</v>
       </c>
@@ -8277,7 +8290,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N113" s="22" t="s">
         <v>200</v>
       </c>
@@ -8285,7 +8298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N114" s="22" t="s">
         <v>355</v>
       </c>
@@ -8293,7 +8306,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="115" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N115" s="22" t="s">
         <v>649</v>
       </c>
@@ -8301,7 +8314,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="116" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N116" s="22" t="s">
         <v>841</v>
       </c>
@@ -8309,7 +8322,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="117" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N117" s="22" t="s">
         <v>722</v>
       </c>
@@ -8317,7 +8330,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N118" s="22" t="s">
         <v>122</v>
       </c>
@@ -8325,7 +8338,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N119" s="22" t="s">
         <v>611</v>
       </c>
@@ -8333,7 +8346,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="120" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N120" s="22" t="s">
         <v>572</v>
       </c>
@@ -8341,7 +8354,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="121" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N121" s="22" t="s">
         <v>643</v>
       </c>
@@ -8349,7 +8362,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="122" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N122" s="22" t="s">
         <v>50</v>
       </c>
@@ -8357,7 +8370,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N123" s="22" t="s">
         <v>814</v>
       </c>
@@ -8365,7 +8378,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="124" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N124" s="22" t="s">
         <v>228</v>
       </c>
@@ -8373,7 +8386,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N125" s="22" t="s">
         <v>801</v>
       </c>
@@ -8381,7 +8394,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="126" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N126" s="22" t="s">
         <v>381</v>
       </c>
@@ -8389,7 +8402,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="127" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N127" s="22" t="s">
         <v>578</v>
       </c>
@@ -8397,7 +8410,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="128" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N128" s="22" t="s">
         <v>160</v>
       </c>
@@ -8405,7 +8418,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N129" s="22" t="s">
         <v>339</v>
       </c>
@@ -8413,7 +8426,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="130" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N130" s="22" t="s">
         <v>600</v>
       </c>
@@ -8421,7 +8434,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="131" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N131" s="22" t="s">
         <v>188</v>
       </c>
@@ -8429,7 +8442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N132" s="22" t="s">
         <v>359</v>
       </c>
@@ -8437,7 +8450,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="133" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N133" s="22" t="s">
         <v>818</v>
       </c>
@@ -8445,7 +8458,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="134" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N134" s="22" t="s">
         <v>158</v>
       </c>
@@ -8453,7 +8466,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N135" s="22" t="s">
         <v>46</v>
       </c>
@@ -8461,7 +8474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N136" s="22" t="s">
         <v>75</v>
       </c>
@@ -8469,7 +8482,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="137" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N137" s="22" t="s">
         <v>145</v>
       </c>
@@ -8477,7 +8490,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N138" s="22" t="s">
         <v>828</v>
       </c>
@@ -8485,7 +8498,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="139" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N139" s="22" t="s">
         <v>615</v>
       </c>
@@ -8493,7 +8506,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="140" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N140" s="22" t="s">
         <v>176</v>
       </c>
@@ -8501,7 +8514,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N141" s="22" t="s">
         <v>756</v>
       </c>
@@ -8509,7 +8522,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="142" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N142" s="22" t="s">
         <v>756</v>
       </c>
@@ -8517,7 +8530,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="143" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N143" s="22" t="s">
         <v>162</v>
       </c>
@@ -8525,7 +8538,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="144" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N144" s="22" t="s">
         <v>164</v>
       </c>
@@ -8533,7 +8546,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="145" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N145" s="22" t="s">
         <v>532</v>
       </c>
@@ -8541,7 +8554,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="146" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N146" s="22" t="s">
         <v>617</v>
       </c>
@@ -8549,7 +8562,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="147" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N147" s="22" t="s">
         <v>771</v>
       </c>
@@ -8557,7 +8570,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="148" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N148" s="22" t="s">
         <v>419</v>
       </c>
@@ -8565,7 +8578,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="149" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N149" s="22" t="s">
         <v>58</v>
       </c>
@@ -8573,7 +8586,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="150" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N150" s="22" t="s">
         <v>708</v>
       </c>
@@ -8581,7 +8594,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="151" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N151" s="22" t="s">
         <v>42</v>
       </c>
@@ -8589,7 +8602,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N152" s="22" t="s">
         <v>147</v>
       </c>
@@ -8597,7 +8610,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="153" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N153" s="22" t="s">
         <v>93</v>
       </c>
@@ -8605,7 +8618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="154" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N154" s="22" t="s">
         <v>609</v>
       </c>
@@ -8613,7 +8626,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="155" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N155" s="22" t="s">
         <v>613</v>
       </c>
@@ -8621,7 +8634,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="156" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N156" s="22" t="s">
         <v>395</v>
       </c>
@@ -8629,7 +8642,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="157" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N157" s="22" t="s">
         <v>667</v>
       </c>
@@ -8637,7 +8650,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="158" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N158" s="22" t="s">
         <v>775</v>
       </c>
@@ -8645,7 +8658,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="159" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N159" s="22" t="s">
         <v>204</v>
       </c>
@@ -8653,7 +8666,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N160" s="22" t="s">
         <v>56</v>
       </c>
@@ -8661,7 +8674,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N161" s="22" t="s">
         <v>423</v>
       </c>
@@ -8669,7 +8682,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="162" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N162" s="22" t="s">
         <v>779</v>
       </c>
@@ -8677,7 +8690,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="163" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N163" s="22" t="s">
         <v>807</v>
       </c>
@@ -8685,7 +8698,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="164" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N164" s="22" t="s">
         <v>214</v>
       </c>
@@ -8693,7 +8706,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N165" s="22" t="s">
         <v>214</v>
       </c>
@@ -8701,7 +8714,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N166" s="22" t="s">
         <v>379</v>
       </c>
@@ -8709,7 +8722,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N167" s="22" t="s">
         <v>698</v>
       </c>
@@ -8717,7 +8730,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="168" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N168" s="22" t="s">
         <v>834</v>
       </c>
@@ -8725,7 +8738,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="169" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N169" s="22" t="s">
         <v>544</v>
       </c>
@@ -8733,7 +8746,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="170" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N170" s="22" t="s">
         <v>889</v>
       </c>
@@ -8741,7 +8754,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="171" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N171" s="22" t="s">
         <v>637</v>
       </c>
@@ -8749,7 +8762,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="172" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N172" s="22" t="s">
         <v>548</v>
       </c>
@@ -8757,7 +8770,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="173" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N173" s="22" t="s">
         <v>182</v>
       </c>
@@ -8765,7 +8778,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N174" s="22" t="s">
         <v>222</v>
       </c>
@@ -8773,7 +8786,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="175" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N175" s="22" t="s">
         <v>857</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="176" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N176" s="22" t="s">
         <v>303</v>
       </c>
@@ -8789,7 +8802,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="177" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N177" s="22" t="s">
         <v>552</v>
       </c>
@@ -8797,7 +8810,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="178" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N178" s="22" t="s">
         <v>500</v>
       </c>
@@ -8805,7 +8818,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="179" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N179" s="22" t="s">
         <v>621</v>
       </c>
@@ -8813,7 +8826,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="180" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N180" s="22" t="s">
         <v>502</v>
       </c>
@@ -8821,7 +8834,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="181" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N181" s="22" t="s">
         <v>375</v>
       </c>
@@ -8829,7 +8842,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="182" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N182" s="22" t="s">
         <v>472</v>
       </c>
@@ -8837,7 +8850,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="183" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N183" s="22" t="s">
         <v>504</v>
       </c>
@@ -8845,7 +8858,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="184" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N184" s="22" t="s">
         <v>453</v>
       </c>
@@ -8853,7 +8866,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="185" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N185" s="22" t="s">
         <v>307</v>
       </c>
@@ -8861,7 +8874,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="186" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N186" s="22" t="s">
         <v>839</v>
       </c>
@@ -8869,7 +8882,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="187" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N187" s="22" t="s">
         <v>455</v>
       </c>
@@ -8877,7 +8890,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="188" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N188" s="22" t="s">
         <v>645</v>
       </c>
@@ -8885,7 +8898,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N189" s="22" t="s">
         <v>486</v>
       </c>
@@ -8893,7 +8906,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="190" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N190" s="22" t="s">
         <v>463</v>
       </c>
@@ -8901,7 +8914,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="191" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N191" s="22" t="s">
         <v>81</v>
       </c>
@@ -8909,7 +8922,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="192" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N192" s="22" t="s">
         <v>506</v>
       </c>
@@ -8917,7 +8930,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="193" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N193" s="22" t="s">
         <v>377</v>
       </c>
@@ -8925,7 +8938,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="194" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N194" s="22" t="s">
         <v>413</v>
       </c>
@@ -8933,7 +8946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="195" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N195" s="22" t="s">
         <v>522</v>
       </c>
@@ -8941,7 +8954,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="196" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N196" s="22" t="s">
         <v>751</v>
       </c>
@@ -8949,7 +8962,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="197" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N197" s="22" t="s">
         <v>679</v>
       </c>
@@ -8957,7 +8970,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="198" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N198" s="22" t="s">
         <v>48</v>
       </c>
@@ -8965,7 +8978,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="199" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N199" s="22" t="s">
         <v>508</v>
       </c>
@@ -8973,7 +8986,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="200" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N200" s="22" t="s">
         <v>449</v>
       </c>
@@ -8981,7 +8994,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="201" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N201" s="22" t="s">
         <v>631</v>
       </c>
@@ -8989,7 +9002,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="202" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N202" s="22" t="s">
         <v>351</v>
       </c>
@@ -8997,7 +9010,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="203" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N203" s="22" t="s">
         <v>810</v>
       </c>
@@ -9005,7 +9018,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="204" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N204" s="22" t="s">
         <v>407</v>
       </c>
@@ -9013,7 +9026,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N205" s="22" t="s">
         <v>474</v>
       </c>
@@ -9021,7 +9034,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="206" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N206" s="22" t="s">
         <v>482</v>
       </c>
@@ -9029,7 +9042,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="207" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N207" s="22" t="s">
         <v>741</v>
       </c>
@@ -9037,7 +9050,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="208" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N208" s="22" t="s">
         <v>625</v>
       </c>
@@ -9045,7 +9058,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="209" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N209" s="22" t="s">
         <v>467</v>
       </c>
@@ -9053,7 +9066,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="210" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N210" s="22" t="s">
         <v>469</v>
       </c>
@@ -9061,7 +9074,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N211" s="22" t="s">
         <v>469</v>
       </c>
@@ -9069,7 +9082,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="212" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N212" s="22" t="s">
         <v>820</v>
       </c>
@@ -9077,7 +9090,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="213" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N213" s="22" t="s">
         <v>663</v>
       </c>
@@ -9085,7 +9098,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="214" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N214" s="22" t="s">
         <v>107</v>
       </c>
@@ -9093,7 +9106,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="215" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N215" s="22" t="s">
         <v>639</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="216" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N216" s="22" t="s">
         <v>641</v>
       </c>
@@ -9109,7 +9122,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="217" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N217" s="22" t="s">
         <v>494</v>
       </c>
@@ -9117,7 +9130,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="218" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N218" s="22" t="s">
         <v>560</v>
       </c>
@@ -9125,7 +9138,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="219" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N219" s="22" t="s">
         <v>180</v>
       </c>
@@ -9133,7 +9146,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="220" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N220" s="22" t="s">
         <v>465</v>
       </c>
@@ -9141,7 +9154,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="221" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N221" s="22" t="s">
         <v>431</v>
       </c>
@@ -9149,7 +9162,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="222" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N222" s="22" t="s">
         <v>706</v>
       </c>
@@ -9157,7 +9170,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="223" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N223" s="22" t="s">
         <v>681</v>
       </c>
@@ -9165,7 +9178,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="224" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N224" s="22" t="s">
         <v>743</v>
       </c>
@@ -9173,7 +9186,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="225" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N225" s="22" t="s">
         <v>627</v>
       </c>
@@ -9181,7 +9194,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="226" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N226" s="22" t="s">
         <v>62</v>
       </c>
@@ -9189,7 +9202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N227" s="22" t="s">
         <v>832</v>
       </c>
@@ -9197,7 +9210,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="228" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N228" s="22" t="s">
         <v>745</v>
       </c>
@@ -9205,7 +9218,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="229" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N229" s="22" t="s">
         <v>773</v>
       </c>
@@ -9213,7 +9226,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="230" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N230" s="22" t="s">
         <v>781</v>
       </c>
@@ -9221,7 +9234,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="231" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N231" s="22" t="s">
         <v>739</v>
       </c>
@@ -9229,7 +9242,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="232" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N232" s="22" t="s">
         <v>526</v>
       </c>
@@ -9237,7 +9250,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="233" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N233" s="22" t="s">
         <v>337</v>
       </c>
@@ -9245,7 +9258,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="234" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N234" s="22" t="s">
         <v>333</v>
       </c>
@@ -9253,7 +9266,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N235" s="22" t="s">
         <v>629</v>
       </c>
@@ -9261,7 +9274,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="236" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N236" s="22" t="s">
         <v>246</v>
       </c>
@@ -9269,7 +9282,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="237" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N237" s="22" t="s">
         <v>693</v>
       </c>
@@ -9277,7 +9290,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="238" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N238" s="22" t="s">
         <v>542</v>
       </c>
@@ -9285,7 +9298,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="239" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N239" s="22" t="s">
         <v>568</v>
       </c>
@@ -9293,7 +9306,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="240" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N240" s="22" t="s">
         <v>101</v>
       </c>
@@ -9301,7 +9314,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="241" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N241" s="22" t="s">
         <v>112</v>
       </c>
@@ -9309,7 +9322,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N242" s="22" t="s">
         <v>284</v>
       </c>
@@ -9317,7 +9330,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="243" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N243" s="22" t="s">
         <v>586</v>
       </c>
@@ -9325,7 +9338,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="244" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N244" s="22" t="s">
         <v>274</v>
       </c>
@@ -9333,7 +9346,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="245" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N245" s="22" t="s">
         <v>250</v>
       </c>
@@ -9341,7 +9354,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="246" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N246" s="22" t="s">
         <v>371</v>
       </c>
@@ -9349,7 +9362,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="247" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N247" s="22" t="s">
         <v>588</v>
       </c>
@@ -9357,7 +9370,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="248" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N248" s="22" t="s">
         <v>590</v>
       </c>
@@ -9365,7 +9378,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="249" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N249" s="22" t="s">
         <v>253</v>
       </c>
@@ -9373,7 +9386,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N250" s="22" t="s">
         <v>633</v>
       </c>
@@ -9381,7 +9394,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="251" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N251" s="22" t="s">
         <v>234</v>
       </c>
@@ -9389,7 +9402,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="252" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N252" s="22" t="s">
         <v>347</v>
       </c>
@@ -9397,7 +9410,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="253" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N253" s="22" t="s">
         <v>256</v>
       </c>
@@ -9405,7 +9418,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="254" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N254" s="22" t="s">
         <v>383</v>
       </c>
@@ -9413,7 +9426,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="255" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N255" s="22" t="s">
         <v>401</v>
       </c>
@@ -9421,7 +9434,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="256" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N256" s="22" t="s">
         <v>710</v>
       </c>
@@ -9429,7 +9442,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="257" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N257" s="22" t="s">
         <v>389</v>
       </c>
@@ -9437,7 +9450,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="258" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N258" s="22" t="s">
         <v>286</v>
       </c>
@@ -9445,7 +9458,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="259" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N259" s="22" t="s">
         <v>672</v>
       </c>
@@ -9453,7 +9466,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="260" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N260" s="22" t="s">
         <v>103</v>
       </c>
@@ -9461,7 +9474,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="261" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N261" s="22" t="s">
         <v>130</v>
       </c>
@@ -9469,7 +9482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="262" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N262" s="22" t="s">
         <v>278</v>
       </c>
@@ -9477,7 +9490,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="263" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N263" s="22" t="s">
         <v>315</v>
       </c>
@@ -9485,7 +9498,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="264" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N264" s="22" t="s">
         <v>315</v>
       </c>
@@ -9493,7 +9506,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="265" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N265" s="22" t="s">
         <v>120</v>
       </c>
@@ -9501,7 +9514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N266" s="22" t="s">
         <v>178</v>
       </c>
@@ -9509,7 +9522,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="267" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N267" s="22" t="s">
         <v>538</v>
       </c>
@@ -9517,7 +9530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="268" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N268" s="22" t="s">
         <v>168</v>
       </c>
@@ -9525,7 +9538,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="269" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N269" s="22" t="s">
         <v>702</v>
       </c>
@@ -9533,7 +9546,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="270" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N270" s="22" t="s">
         <v>830</v>
       </c>
@@ -9541,7 +9554,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="271" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N271" s="22" t="s">
         <v>126</v>
       </c>
@@ -9549,7 +9562,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="272" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N272" s="22" t="s">
         <v>385</v>
       </c>
@@ -9557,7 +9570,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="273" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N273" s="22" t="s">
         <v>647</v>
       </c>
@@ -9565,7 +9578,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="274" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N274" s="22" t="s">
         <v>91</v>
       </c>
@@ -9573,7 +9586,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="275" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N275" s="22" t="s">
         <v>313</v>
       </c>
@@ -9581,7 +9594,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="276" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N276" s="22" t="s">
         <v>198</v>
       </c>
@@ -9589,7 +9602,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="277" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N277" s="22" t="s">
         <v>262</v>
       </c>
@@ -9597,7 +9610,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="278" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N278" s="22" t="s">
         <v>425</v>
       </c>
@@ -9605,7 +9618,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="279" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N279" s="22" t="s">
         <v>566</v>
       </c>
@@ -9613,7 +9626,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="280" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N280" s="22" t="s">
         <v>192</v>
       </c>
@@ -9621,7 +9634,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="281" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N281" s="22" t="s">
         <v>79</v>
       </c>
@@ -9629,7 +9642,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="282" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N282" s="22" t="s">
         <v>292</v>
       </c>
@@ -9637,7 +9650,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="283" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N283" s="22" t="s">
         <v>848</v>
       </c>
@@ -9645,7 +9658,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="284" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N284" s="22" t="s">
         <v>674</v>
       </c>
@@ -9653,7 +9666,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="285" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N285" s="22" t="s">
         <v>763</v>
       </c>
@@ -9661,7 +9674,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="286" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N286" s="22" t="s">
         <v>77</v>
       </c>
@@ -9669,7 +9682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="287" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N287" s="22" t="s">
         <v>77</v>
       </c>
@@ -9677,7 +9690,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="288" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N288" s="22" t="s">
         <v>216</v>
       </c>
@@ -9685,7 +9698,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="289" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N289" s="22" t="s">
         <v>236</v>
       </c>
@@ -9693,7 +9706,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="290" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N290" s="22" t="s">
         <v>136</v>
       </c>
@@ -9701,7 +9714,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="291" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N291" s="22" t="s">
         <v>409</v>
       </c>
@@ -9709,7 +9722,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="292" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N292" s="22" t="s">
         <v>309</v>
       </c>
@@ -9717,7 +9730,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="293" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N293" s="22" t="s">
         <v>365</v>
       </c>
@@ -9725,7 +9738,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="294" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N294" s="22" t="s">
         <v>38</v>
       </c>
@@ -9733,7 +9746,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="295" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N295" s="22" t="s">
         <v>226</v>
       </c>
@@ -9741,7 +9754,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="296" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N296" s="22" t="s">
         <v>373</v>
       </c>
@@ -9749,7 +9762,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="297" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N297" s="22" t="s">
         <v>574</v>
       </c>
@@ -9757,7 +9770,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="298" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N298" s="22" t="s">
         <v>97</v>
       </c>
@@ -9765,7 +9778,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="299" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N299" s="22" t="s">
         <v>846</v>
       </c>
@@ -9773,7 +9786,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="300" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N300" s="22" t="s">
         <v>156</v>
       </c>
@@ -9781,7 +9794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="301" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N301" s="22" t="s">
         <v>345</v>
       </c>
@@ -9789,7 +9802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="302" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N302" s="22" t="s">
         <v>202</v>
       </c>
@@ -9797,7 +9810,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="303" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N303" s="22" t="s">
         <v>174</v>
       </c>
@@ -9805,7 +9818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="304" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N304" s="22" t="s">
         <v>747</v>
       </c>
@@ -9813,7 +9826,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="305" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N305" s="22" t="s">
         <v>244</v>
       </c>
@@ -9821,7 +9834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="306" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N306" s="22" t="s">
         <v>140</v>
       </c>
@@ -9829,7 +9842,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="307" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N307" s="22" t="s">
         <v>140</v>
       </c>
@@ -9837,7 +9850,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="308" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N308" s="22" t="s">
         <v>761</v>
       </c>
@@ -9845,7 +9858,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="309" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N309" s="22" t="s">
         <v>64</v>
       </c>
@@ -9853,7 +9866,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="310" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N310" s="22" t="s">
         <v>594</v>
       </c>
@@ -9861,7 +9874,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="311" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N311" s="22" t="s">
         <v>218</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="312" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N312" s="22" t="s">
         <v>300</v>
       </c>
@@ -9877,7 +9890,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="313" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N313" s="22" t="s">
         <v>242</v>
       </c>
@@ -9885,7 +9898,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="314" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N314" s="22" t="s">
         <v>714</v>
       </c>
@@ -9893,7 +9906,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="315" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N315" s="22" t="s">
         <v>238</v>
       </c>
@@ -9901,7 +9914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="316" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N316" s="22" t="s">
         <v>40</v>
       </c>
@@ -9909,7 +9922,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N317" s="22" t="s">
         <v>795</v>
       </c>
@@ -9917,7 +9930,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N318" s="22" t="s">
         <v>415</v>
       </c>
@@ -9925,7 +9938,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="319" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N319" s="22" t="s">
         <v>343</v>
       </c>
@@ -9933,7 +9946,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="320" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N320" s="22" t="s">
         <v>134</v>
       </c>
@@ -9941,7 +9954,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="321" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N321" s="22" t="s">
         <v>853</v>
       </c>
@@ -9949,7 +9962,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="322" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N322" s="22" t="s">
         <v>726</v>
       </c>
@@ -9957,7 +9970,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="323" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N323" s="22" t="s">
         <v>212</v>
       </c>
@@ -9965,7 +9978,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="324" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N324" s="22" t="s">
         <v>850</v>
       </c>
@@ -9973,7 +9986,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="325" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N325" s="22" t="s">
         <v>258</v>
       </c>
@@ -9981,7 +9994,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="326" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N326" s="22" t="s">
         <v>220</v>
       </c>
@@ -9989,7 +10002,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="327" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N327" s="22" t="s">
         <v>143</v>
       </c>
@@ -9997,7 +10010,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="328" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N328" s="22" t="s">
         <v>724</v>
       </c>
@@ -10005,7 +10018,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="329" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N329" s="22" t="s">
         <v>224</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="330" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N330" s="22" t="s">
         <v>718</v>
       </c>
@@ -10021,7 +10034,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="331" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N331" s="22" t="s">
         <v>790</v>
       </c>
@@ -10029,7 +10042,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="332" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N332" s="22" t="s">
         <v>325</v>
       </c>
@@ -10037,7 +10050,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="333" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N333" s="22" t="s">
         <v>138</v>
       </c>
@@ -10045,7 +10058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="334" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N334" s="22" t="s">
         <v>44</v>
       </c>
@@ -10053,7 +10066,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="335" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N335" s="22" t="s">
         <v>659</v>
       </c>
@@ -10061,7 +10074,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="336" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N336" s="22" t="s">
         <v>655</v>
       </c>
@@ -10069,7 +10082,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="337" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N337" s="22" t="s">
         <v>260</v>
       </c>
@@ -10077,7 +10090,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N338" s="22" t="s">
         <v>335</v>
       </c>
@@ -10085,7 +10098,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N339" s="22" t="s">
         <v>665</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="340" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N340" s="22" t="s">
         <v>570</v>
       </c>
@@ -10101,7 +10114,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="341" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N341" s="22" t="s">
         <v>687</v>
       </c>
@@ -10109,7 +10122,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="342" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N342" s="22" t="s">
         <v>783</v>
       </c>
@@ -10117,7 +10130,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="343" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N343" s="22" t="s">
         <v>305</v>
       </c>
@@ -10125,7 +10138,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="344" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N344" s="22" t="s">
         <v>421</v>
       </c>
@@ -10133,7 +10146,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="345" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N345" s="22" t="s">
         <v>816</v>
       </c>
@@ -10141,7 +10154,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="346" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N346" s="22" t="s">
         <v>793</v>
       </c>
@@ -10149,7 +10162,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="347" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N347" s="22" t="s">
         <v>769</v>
       </c>
@@ -10157,7 +10170,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="348" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N348" s="22" t="s">
         <v>151</v>
       </c>
@@ -10165,7 +10178,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="349" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N349" s="22" t="s">
         <v>170</v>
       </c>
@@ -10173,7 +10186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="350" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N350" s="22" t="s">
         <v>826</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="351" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N351" s="22" t="s">
         <v>208</v>
       </c>
@@ -10189,7 +10202,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="352" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N352" s="22" t="s">
         <v>85</v>
       </c>
@@ -10197,7 +10210,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="353" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N353" s="22" t="s">
         <v>546</v>
       </c>
@@ -10205,7 +10218,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="354" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N354" s="22" t="s">
         <v>387</v>
       </c>
@@ -10213,7 +10226,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="355" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N355" s="22" t="s">
         <v>341</v>
       </c>
@@ -10221,7 +10234,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="356" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N356" s="22" t="s">
         <v>429</v>
       </c>
@@ -10229,7 +10242,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="357" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N357" s="22" t="s">
         <v>367</v>
       </c>
@@ -10237,7 +10250,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="358" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N358" s="22" t="s">
         <v>788</v>
       </c>
@@ -10245,7 +10258,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="359" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N359" s="22" t="s">
         <v>349</v>
       </c>
@@ -10253,7 +10266,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="360" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N360" s="22" t="s">
         <v>95</v>
       </c>
@@ -10261,7 +10274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="361" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N361" s="22" t="s">
         <v>417</v>
       </c>
@@ -10269,7 +10282,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="362" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N362" s="22" t="s">
         <v>496</v>
       </c>
@@ -10277,7 +10290,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="363" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N363" s="22" t="s">
         <v>520</v>
       </c>
@@ -10285,7 +10298,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="364" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N364" s="22" t="s">
         <v>427</v>
       </c>
@@ -10293,7 +10306,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="365" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N365" s="22" t="s">
         <v>657</v>
       </c>
@@ -10301,7 +10314,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="366" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N366" s="22" t="s">
         <v>685</v>
       </c>
@@ -10309,7 +10322,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="367" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N367" s="22" t="s">
         <v>824</v>
       </c>
@@ -10317,7 +10330,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="368" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="14:15" ht="16" x14ac:dyDescent="0.2">
       <c r="N368" s="24" t="s">
         <v>447</v>
       </c>
@@ -10325,7 +10338,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="369" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N369" s="22" t="s">
         <v>564</v>
       </c>
@@ -10333,7 +10346,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="370" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N370" s="22" t="s">
         <v>528</v>
       </c>
@@ -10341,7 +10354,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="371" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N371" s="22" t="s">
         <v>510</v>
       </c>
@@ -10349,7 +10362,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="372" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N372" s="22" t="s">
         <v>437</v>
       </c>
@@ -10357,7 +10370,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="373" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N373" s="22" t="s">
         <v>439</v>
       </c>
@@ -10365,7 +10378,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="374" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N374" s="22" t="s">
         <v>524</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="375" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N375" s="22" t="s">
         <v>459</v>
       </c>
@@ -10381,7 +10394,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="376" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N376" s="22" t="s">
         <v>516</v>
       </c>
@@ -10389,7 +10402,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="377" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N377" s="22" t="s">
         <v>445</v>
       </c>
@@ -10397,7 +10410,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="378" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N378" s="22" t="s">
         <v>490</v>
       </c>
@@ -10405,7 +10418,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="379" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N379" s="22" t="s">
         <v>484</v>
       </c>
@@ -10413,7 +10426,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="380" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N380" s="22" t="s">
         <v>457</v>
       </c>
@@ -10421,7 +10434,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="381" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N381" s="22" t="s">
         <v>512</v>
       </c>
@@ -10429,7 +10442,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="382" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N382" s="22" t="s">
         <v>480</v>
       </c>
@@ -10437,7 +10450,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="383" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N383" s="22" t="s">
         <v>737</v>
       </c>
@@ -10445,7 +10458,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="384" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N384" s="22" t="s">
         <v>476</v>
       </c>
@@ -10453,7 +10466,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="385" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N385" s="22" t="s">
         <v>514</v>
       </c>
@@ -10461,7 +10474,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="386" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N386" s="22" t="s">
         <v>461</v>
       </c>
@@ -10469,7 +10482,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="387" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N387" s="22" t="s">
         <v>451</v>
       </c>
@@ -10477,7 +10490,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="388" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N388" s="22" t="s">
         <v>478</v>
       </c>
@@ -10485,7 +10498,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="389" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N389" s="22" t="s">
         <v>498</v>
       </c>
@@ -10493,7 +10506,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="390" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N390" s="22" t="s">
         <v>441</v>
       </c>
@@ -10501,7 +10514,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="391" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N391" s="22" t="s">
         <v>716</v>
       </c>
@@ -10509,7 +10522,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="392" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N392" s="22" t="s">
         <v>433</v>
       </c>
@@ -10517,7 +10530,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="393" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N393" s="22" t="s">
         <v>443</v>
       </c>
@@ -10525,7 +10538,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N394" s="22" t="s">
         <v>518</v>
       </c>
@@ -10533,7 +10546,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="395" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N395" s="22" t="s">
         <v>530</v>
       </c>
@@ -10541,7 +10554,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="396" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N396" s="22" t="s">
         <v>488</v>
       </c>
@@ -10549,7 +10562,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="397" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N397" s="22" t="s">
         <v>492</v>
       </c>
@@ -10557,7 +10570,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="398" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N398" s="22" t="s">
         <v>435</v>
       </c>
@@ -10565,7 +10578,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="399" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N399" s="22" t="s">
         <v>87</v>
       </c>
@@ -10573,7 +10586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="400" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N400" s="22" t="s">
         <v>280</v>
       </c>
@@ -10581,7 +10594,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="401" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N401" s="22" t="s">
         <v>290</v>
       </c>
@@ -10589,7 +10602,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="402" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N402" s="22" t="s">
         <v>592</v>
       </c>
@@ -10597,7 +10610,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="403" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N403" s="22" t="s">
         <v>689</v>
       </c>
@@ -10605,7 +10618,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="404" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N404" s="22" t="s">
         <v>264</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="405" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N405" s="22" t="s">
         <v>369</v>
       </c>
@@ -10621,7 +10634,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="406" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N406" s="22" t="s">
         <v>155</v>
       </c>
@@ -10629,7 +10642,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="407" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N407" s="22" t="s">
         <v>836</v>
       </c>
@@ -10637,7 +10650,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="408" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N408" s="22" t="s">
         <v>576</v>
       </c>
@@ -10645,7 +10658,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="409" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N409" s="22" t="s">
         <v>276</v>
       </c>
@@ -10653,7 +10666,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="410" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N410" s="22" t="s">
         <v>661</v>
       </c>
@@ -10661,7 +10674,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="411" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N411" s="22" t="s">
         <v>870</v>
       </c>
@@ -10669,7 +10682,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="412" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N412" s="22" t="s">
         <v>871</v>
       </c>
@@ -10677,7 +10690,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="413" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N413" s="22" t="s">
         <v>872</v>
       </c>
@@ -10685,7 +10698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="414" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N414" s="22" t="s">
         <v>887</v>
       </c>
@@ -10693,7 +10706,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="415" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N415" s="22" t="s">
         <v>873</v>
       </c>
@@ -10701,7 +10714,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="416" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N416" s="22" t="s">
         <v>874</v>
       </c>
@@ -10709,7 +10722,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="417" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N417" s="22" t="s">
         <v>875</v>
       </c>
@@ -10717,7 +10730,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="418" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N418" s="22" t="s">
         <v>876</v>
       </c>
@@ -10725,7 +10738,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="419" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N419" s="22" t="s">
         <v>877</v>
       </c>
@@ -10733,7 +10746,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="420" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N420" s="22" t="s">
         <v>878</v>
       </c>
@@ -10741,7 +10754,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="421" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N421" s="22" t="s">
         <v>879</v>
       </c>
@@ -10749,7 +10762,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="422" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N422" s="22" t="s">
         <v>880</v>
       </c>
@@ -10757,7 +10770,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="423" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N423" s="22" t="s">
         <v>881</v>
       </c>
@@ -10765,7 +10778,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="424" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N424" s="22" t="s">
         <v>882</v>
       </c>
@@ -10773,7 +10786,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="425" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N425" s="22" t="s">
         <v>883</v>
       </c>
@@ -10781,7 +10794,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="426" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N426" s="22" t="s">
         <v>884</v>
       </c>
@@ -10789,7 +10802,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="427" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N427" s="22" t="s">
         <v>885</v>
       </c>
@@ -10797,7 +10810,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="428" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N428" s="22" t="s">
         <v>886</v>
       </c>
@@ -10805,113 +10818,113 @@
         <v>859</v>
       </c>
     </row>
-    <row r="429" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N429" s="30"/>
       <c r="O429" s="28"/>
     </row>
-    <row r="430" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N430" s="30"/>
       <c r="O430" s="28"/>
     </row>
-    <row r="431" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N431" s="30"/>
       <c r="O431" s="28"/>
     </row>
-    <row r="432" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N432" s="30"/>
       <c r="O432" s="28"/>
     </row>
-    <row r="433" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N433" s="30"/>
       <c r="O433" s="28"/>
     </row>
-    <row r="434" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N434" s="30"/>
       <c r="O434" s="28"/>
     </row>
-    <row r="435" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N435" s="30"/>
       <c r="O435" s="28"/>
     </row>
-    <row r="436" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N436" s="27"/>
     </row>
-    <row r="437" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N437" s="27"/>
     </row>
-    <row r="438" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N438" s="27"/>
     </row>
-    <row r="439" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N439" s="27"/>
     </row>
-    <row r="440" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N440" s="27"/>
     </row>
-    <row r="441" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N441" s="27"/>
     </row>
-    <row r="442" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N442" s="27"/>
     </row>
-    <row r="443" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N443" s="27"/>
     </row>
-    <row r="444" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N444" s="27"/>
     </row>
-    <row r="445" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N445" s="27"/>
     </row>
-    <row r="446" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N446" s="27"/>
     </row>
-    <row r="447" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N447" s="27"/>
     </row>
-    <row r="448" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N448" s="27"/>
     </row>
-    <row r="449" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="449" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N449" s="27"/>
     </row>
-    <row r="450" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="450" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N450" s="27"/>
     </row>
-    <row r="451" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="451" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N451" s="27"/>
     </row>
-    <row r="452" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="452" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N452" s="27"/>
     </row>
-    <row r="453" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="453" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N453" s="27"/>
     </row>
-    <row r="454" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="454" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N454" s="27"/>
     </row>
-    <row r="455" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="455" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N455" s="27"/>
     </row>
-    <row r="456" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="456" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N456" s="27"/>
     </row>
-    <row r="457" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="457" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N457" s="27"/>
     </row>
-    <row r="458" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="458" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N458" s="27"/>
     </row>
-    <row r="459" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="459" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N459" s="27"/>
     </row>
-    <row r="460" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="460" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N460" s="27"/>
     </row>
-    <row r="461" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="461" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N461" s="27"/>
     </row>
-    <row r="462" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="462" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N462" s="27"/>
     </row>
   </sheetData>
